--- a/biology/Médecine/Bronche/Bronche.xlsx
+++ b/biology/Médecine/Bronche/Bronche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle bronche un conduit qui apporte l'air riche en dioxygène depuis l'extérieur du corps dans les poumons. Cet organe est typique des vertébrés. Chez les mammifères, il y a deux ou trois bronches souches qui partent de la base de la trachée (au niveau de la carène trachéale, dans le médiastin), chacune d'entre elles plongeant dans le poumon droit ou gauche. Elles se prolongent dans les poumons par de nombreuses ramifications appelées bronches primaires (souches), secondaires (lobaires) et tertiaires (segmentaires), suivies par les bronchioles après un certain nombre de divisions.
 </t>
@@ -511,7 +523,9 @@
           <t>Différences entre espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cetartiodactyla possèdent trois bronches, les primates deux.
 </t>
@@ -542,7 +556,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La ramification des principales bronches dans chacun des deux poumons correspond à la division de ceux-ci en lobes et en segments. Typiquement on a donc le schéma suivant : bronche principale → bronche lobaire → bronche segmentaire. Il en va ainsi des divisions de la bronche souche droite :
 bronche lobaire supérieure :
@@ -599,7 +615,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bronches sont constituées d'une muqueuse et d'une sous muqueuse. La muqueuse est constituée d'un épithélium respiratoire et d'un chorion de soutien. Dans le chorion, on trouve des cellules immunitaires rassemblées en nodules lymphoïdes, ce sont les BALT (Bronchus associated Lymphoid Tissue).
 </t>
@@ -630,7 +648,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On peut retrouver plusieurs pathologies affectant les bronches:
 Bronchite chronique
